--- a/biology/Zoologie/Borbo/Borbo.xlsx
+++ b/biology/Zoologie/Borbo/Borbo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Borbo regroupe des lépidoptères (papillons) de la famille des Hesperiidae et de la sous-famille des Hesperiinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont été nommés Borbo par William Harry Evans en 1949.
-En anglais ce sont les Swifts[1]
+En anglais ce sont les Swifts
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Résidant en Afrique
-Borbo borbonica (Boisduval, 1833) — Hespérie de l'île Bourbon.
+          <t>Résidant en Afrique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Borbo borbonica (Boisduval, 1833) — Hespérie de l'île Bourbon.
 Borbo chagwa (Evans, 1937).
 Borbo detecta (Trimen, 1893).
 Borbo fallax (Gaede, 1916).
@@ -562,9 +581,43 @@
 Borbo micans (Holland, 1896).
 Borbo perobscura Druce, 1912.
 Borbo ratek (Boisduval, 1833) présent à Madagascar.
-Borbo sirena Evans, 1937.
-Résidant en Australasie
-Borbo binga (Evans, 1937) présent en Australie.
+Borbo sirena Evans, 1937.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Borbo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Borbo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Résidant en Australasie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Borbo binga (Evans, 1937) présent en Australie.
 Borbo cinnara (Wallace, 1866).
 Borbo impar (Mabille, 1883).
 Borbo liana (Evans, 1937)
